--- a/biology/Médecine/Sertindole/Sertindole.xlsx
+++ b/biology/Médecine/Sertindole/Sertindole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sertindole est un médicament neuroleptique antipsychotique. Il a été mis au point par le laboratoire pharmaceutique danois H. Lundbeck  A/S et commercialisé sous licence par les Laboratoires Abbott sous les noms de Serdolect et Serlect. Comme d'autres antipsychotiques atypiques, il a une activité antagoniste des récepteurs dopaminergiques D2 et sérotoninergiques 5-HT2. Il est utilisé dans le traitement de la schizophrénie. Chimiquement, il est classé comme un dérivé de phénylindole.
-Il a obtenu l'autorisation de mise sur le marché (AMM) en 2003 mais n'est pas commercialisé en France (février 2007). Il n'est plus disponible dans certains pays où il a été commercialisé. Il n'est pas approuvé pour son utilisation aux États-Unis[2].
+Il a obtenu l'autorisation de mise sur le marché (AMM) en 2003 mais n'est pas commercialisé en France (février 2007). Il n'est plus disponible dans certains pays où il a été commercialisé. Il n'est pas approuvé pour son utilisation aux États-Unis.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sertindole est indiqué dans le traitement de la schizophrénie.
 </t>
@@ -544,7 +558,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le sertindole est contre-indiqué chez les patients ayant une hypokaliémie ou une hypomagnésémie connues non corrigées.
 Le sertindole est contre-indiqué chez les patients ayant des antécédents de pathologies cardio-vasculaires avérées, d’insuffisance cardiaque congestive, d’hypertrophie cardiaque, d’arythmie ou de bradycardie (&lt; 50 battements/min).
@@ -590,32 +606,16 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables sont classés ci-dessous par système et par fréquence[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les effets indésirables sont classés ci-dessous par système et par fréquence :
 très fréquents (&gt;10 %) ;
 fréquents (1 - 10 %) ;
 peu fréquents (0,1 – 1 %) ;
 rares (0,01 – 0,1 %) ;
-très rares (&lt; 0,01 %).
-Troubles du métabolisme et de la nutrition
-Peu fréquents : hyperglycémie
-Troubles du système nerveux
-Fréquents : vertiges, paresthésies
-Peu fréquents : syncope, convulsions, troubles moteurs (en particulier dyskinésie tardive)
-Troubles du système cardio-vasculaire
-Fréquents : œdèmes périphériques, hypotension orthostatique
-Peu fréquents : torsades de pointes
-Troubles du système respiratoire
-Très fréquents : rhinite/congestion nasale
-Fréquents : dyspnée
-Troubles gastro-intestinaux
-Fréquents : bouche sèche
-Troubles du système génital
-Fréquents : troubles de l’éjaculation (diminution du volume de l’éjaculat)
-Autres
-Fréquents : prise de poids, allongement du QT, hématurie, leucocyturie.
-</t>
+très rares (&lt; 0,01 %).</t>
         </is>
       </c>
     </row>
@@ -640,10 +640,269 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troubles du métabolisme et de la nutrition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Peu fréquents : hyperglycémie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troubles du système nerveux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fréquents : vertiges, paresthésies
+Peu fréquents : syncope, convulsions, troubles moteurs (en particulier dyskinésie tardive)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Troubles du système cardio-vasculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fréquents : œdèmes périphériques, hypotension orthostatique
+Peu fréquents : torsades de pointes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Troubles du système respiratoire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Très fréquents : rhinite/congestion nasale
+Fréquents : dyspnée</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Troubles gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fréquents : bouche sèche</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Troubles du système génital</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fréquents : troubles de l’éjaculation (diminution du volume de l’éjaculat)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fréquents : prise de poids, allongement du QT, hématurie, leucocyturie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sertindole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sertindole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse du sertindole démarre avec le 5-chloro-1H-indole qui par réaction avec le réactif alkylant 1-fluoro-4-iodobenzène en présence de cuivre donne le 5-chloro-1-(4-fluorophényl)-1H-indole. Celui-ci réagit avec la pipéridin-4-one et HCl pour former le 5-chloro-1-(4-fluorophényl)-3-(1,2,3,6-tétrahydropyridin-4-yl)-1H-indole. L'hydrogénation avec H2 du fragment 1,2,3,6-tétrahydropyridin-4-yl le transforme en pipéridin-4-yl sans contrôle sur la stéréochimie de l'atome de carbone 4. Enfin, une seconde alkylation avec la 1-(2-chloroéthyl)imidazolidin-2-one fournit le sertindole.
 </t>
